--- a/src/Stash/Magicodes.IE.StashTests/_res/正确的定义.xlsx
+++ b/src/Stash/Magicodes.IE.StashTests/_res/正确的定义.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="$definition$" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>数据源列说明:{{B}}B列,{{全部}}全部列,{{其它}}除明确定义的列之外的所有列</t>
   </si>
@@ -165,6 +166,9 @@
   </si>
   <si>
     <t>这下面的都不再继续处理了.</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,6 +1406,293 @@
         <v>49</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:6">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>123</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:9">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:5">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="81" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>49</v>
